--- a/data/formatted/basicdata200910.xlsx
+++ b/data/formatted/basicdata200910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5795DEB4-19AE-44A7-A808-E895C372F91E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614FB4DF-89B3-4C5A-8256-D276CCDAEBDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{025F23C4-5CEA-455A-89EF-C50B53F93090}"/>
+    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{B13395FB-8A76-4F72-BEF1-499CA7C3E9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -112,6 +112,201 @@
   </si>
   <si>
     <t>PersonalFouls</t>
+  </si>
+  <si>
+    <t>Arkansas-Pine Bluff NCAA</t>
+  </si>
+  <si>
+    <t>Baylor NCAA</t>
+  </si>
+  <si>
+    <t>Brigham Young NCAA</t>
+  </si>
+  <si>
+    <t>Butler NCAA</t>
+  </si>
+  <si>
+    <t>UC-Santa Barbara NCAA</t>
+  </si>
+  <si>
+    <t>University of California NCAA</t>
+  </si>
+  <si>
+    <t>Clemson NCAA</t>
+  </si>
+  <si>
+    <t>Cornell NCAA</t>
+  </si>
+  <si>
+    <t>Duke NCAA</t>
+  </si>
+  <si>
+    <t>East Tennessee State NCAA</t>
+  </si>
+  <si>
+    <t>Florida State NCAA</t>
+  </si>
+  <si>
+    <t>Florida NCAA</t>
+  </si>
+  <si>
+    <t>Georgetown NCAA</t>
+  </si>
+  <si>
+    <t>Georgia Tech NCAA</t>
+  </si>
+  <si>
+    <t>Gonzaga NCAA</t>
+  </si>
+  <si>
+    <t>Houston NCAA</t>
+  </si>
+  <si>
+    <t>Kansas State NCAA</t>
+  </si>
+  <si>
+    <t>Kansas NCAA</t>
+  </si>
+  <si>
+    <t>Kentucky NCAA</t>
+  </si>
+  <si>
+    <t>Lehigh NCAA</t>
+  </si>
+  <si>
+    <t>Louisville NCAA</t>
+  </si>
+  <si>
+    <t>Marquette NCAA</t>
+  </si>
+  <si>
+    <t>Maryland NCAA</t>
+  </si>
+  <si>
+    <t>Michigan State NCAA</t>
+  </si>
+  <si>
+    <t>Minnesota NCAA</t>
+  </si>
+  <si>
+    <t>Missouri NCAA</t>
+  </si>
+  <si>
+    <t>Montana NCAA</t>
+  </si>
+  <si>
+    <t>Morgan State NCAA</t>
+  </si>
+  <si>
+    <t>Murray State NCAA</t>
+  </si>
+  <si>
+    <t>Nevada-Las Vegas NCAA</t>
+  </si>
+  <si>
+    <t>New Mexico State NCAA</t>
+  </si>
+  <si>
+    <t>New Mexico NCAA</t>
+  </si>
+  <si>
+    <t>North Texas NCAA</t>
+  </si>
+  <si>
+    <t>Northern Iowa NCAA</t>
+  </si>
+  <si>
+    <t>Notre Dame NCAA</t>
+  </si>
+  <si>
+    <t>Oakland NCAA</t>
+  </si>
+  <si>
+    <t>Ohio State NCAA</t>
+  </si>
+  <si>
+    <t>Ohio NCAA</t>
+  </si>
+  <si>
+    <t>Oklahoma State NCAA</t>
+  </si>
+  <si>
+    <t>Old Dominion NCAA</t>
+  </si>
+  <si>
+    <t>Pittsburgh NCAA</t>
+  </si>
+  <si>
+    <t>Purdue NCAA</t>
+  </si>
+  <si>
+    <t>Richmond NCAA</t>
+  </si>
+  <si>
+    <t>Robert Morris NCAA</t>
+  </si>
+  <si>
+    <t>Saint Mary's (CA) NCAA</t>
+  </si>
+  <si>
+    <t>Sam Houston State NCAA</t>
+  </si>
+  <si>
+    <t>San Diego State NCAA</t>
+  </si>
+  <si>
+    <t>Siena NCAA</t>
+  </si>
+  <si>
+    <t>Syracuse NCAA</t>
+  </si>
+  <si>
+    <t>Temple NCAA</t>
+  </si>
+  <si>
+    <t>Tennessee NCAA</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M NCAA</t>
+  </si>
+  <si>
+    <t>Texas-El Paso NCAA</t>
+  </si>
+  <si>
+    <t>Texas NCAA</t>
+  </si>
+  <si>
+    <t>Utah State NCAA</t>
+  </si>
+  <si>
+    <t>Vanderbilt NCAA</t>
+  </si>
+  <si>
+    <t>Vermont NCAA</t>
+  </si>
+  <si>
+    <t>Villanova NCAA</t>
+  </si>
+  <si>
+    <t>Wake Forest NCAA</t>
+  </si>
+  <si>
+    <t>Washington NCAA</t>
+  </si>
+  <si>
+    <t>West Virginia NCAA</t>
+  </si>
+  <si>
+    <t>Winthrop NCAA</t>
+  </si>
+  <si>
+    <t>Wisconsin NCAA</t>
+  </si>
+  <si>
+    <t>Wofford NCAA</t>
+  </si>
+  <si>
+    <t>Xavier NCAA</t>
   </si>
 </sst>
 </file>
@@ -462,11 +657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41CC492-14FA-4932-898E-7EDCB6A3344B}">
-  <dimension ref="A1:AA1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720E9F84-9013-4754-BB41-165122E0CCDB}">
+  <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+      <selection sqref="A1:AA66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,6 +749,5401 @@
         <v>26</v>
       </c>
     </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>-8.2899999999999991</v>
+      </c>
+      <c r="F2">
+        <v>-7.68</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>2166</v>
+      </c>
+      <c r="N2">
+        <v>2187</v>
+      </c>
+      <c r="O2">
+        <v>725</v>
+      </c>
+      <c r="P2">
+        <v>1778</v>
+      </c>
+      <c r="Q2">
+        <v>141</v>
+      </c>
+      <c r="R2">
+        <v>466</v>
+      </c>
+      <c r="S2">
+        <v>575</v>
+      </c>
+      <c r="T2">
+        <v>861</v>
+      </c>
+      <c r="U2">
+        <v>422</v>
+      </c>
+      <c r="V2">
+        <v>1286</v>
+      </c>
+      <c r="W2">
+        <v>421</v>
+      </c>
+      <c r="X2">
+        <v>229</v>
+      </c>
+      <c r="Y2">
+        <v>121</v>
+      </c>
+      <c r="Z2">
+        <v>569</v>
+      </c>
+      <c r="AA2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>17.97</v>
+      </c>
+      <c r="F3">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>2771</v>
+      </c>
+      <c r="N3">
+        <v>2362</v>
+      </c>
+      <c r="O3">
+        <v>993</v>
+      </c>
+      <c r="P3">
+        <v>2040</v>
+      </c>
+      <c r="Q3">
+        <v>255</v>
+      </c>
+      <c r="R3">
+        <v>662</v>
+      </c>
+      <c r="S3">
+        <v>530</v>
+      </c>
+      <c r="T3">
+        <v>731</v>
+      </c>
+      <c r="U3">
+        <v>443</v>
+      </c>
+      <c r="V3">
+        <v>1408</v>
+      </c>
+      <c r="W3">
+        <v>508</v>
+      </c>
+      <c r="X3">
+        <v>237</v>
+      </c>
+      <c r="Y3">
+        <v>242</v>
+      </c>
+      <c r="Z3">
+        <v>491</v>
+      </c>
+      <c r="AA3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>18.82</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>2992</v>
+      </c>
+      <c r="N4">
+        <v>2392</v>
+      </c>
+      <c r="O4">
+        <v>1025</v>
+      </c>
+      <c r="P4">
+        <v>2120</v>
+      </c>
+      <c r="Q4">
+        <v>292</v>
+      </c>
+      <c r="R4">
+        <v>700</v>
+      </c>
+      <c r="S4">
+        <v>650</v>
+      </c>
+      <c r="T4">
+        <v>823</v>
+      </c>
+      <c r="U4">
+        <v>367</v>
+      </c>
+      <c r="V4">
+        <v>1332</v>
+      </c>
+      <c r="W4">
+        <v>567</v>
+      </c>
+      <c r="X4">
+        <v>307</v>
+      </c>
+      <c r="Y4">
+        <v>126</v>
+      </c>
+      <c r="Z4">
+        <v>417</v>
+      </c>
+      <c r="AA4">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>14.37</v>
+      </c>
+      <c r="F5">
+        <v>5.08</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2611</v>
+      </c>
+      <c r="N5">
+        <v>2258</v>
+      </c>
+      <c r="O5">
+        <v>845</v>
+      </c>
+      <c r="P5">
+        <v>1911</v>
+      </c>
+      <c r="Q5">
+        <v>260</v>
+      </c>
+      <c r="R5">
+        <v>761</v>
+      </c>
+      <c r="S5">
+        <v>661</v>
+      </c>
+      <c r="T5">
+        <v>896</v>
+      </c>
+      <c r="U5">
+        <v>353</v>
+      </c>
+      <c r="V5">
+        <v>1241</v>
+      </c>
+      <c r="W5">
+        <v>464</v>
+      </c>
+      <c r="X5">
+        <v>267</v>
+      </c>
+      <c r="Y5">
+        <v>86</v>
+      </c>
+      <c r="Z5">
+        <v>456</v>
+      </c>
+      <c r="AA5">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>-0.13</v>
+      </c>
+      <c r="F6">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>2028</v>
+      </c>
+      <c r="N6">
+        <v>1972</v>
+      </c>
+      <c r="O6">
+        <v>674</v>
+      </c>
+      <c r="P6">
+        <v>1522</v>
+      </c>
+      <c r="Q6">
+        <v>205</v>
+      </c>
+      <c r="R6">
+        <v>544</v>
+      </c>
+      <c r="S6">
+        <v>475</v>
+      </c>
+      <c r="T6">
+        <v>698</v>
+      </c>
+      <c r="U6">
+        <v>268</v>
+      </c>
+      <c r="V6">
+        <v>984</v>
+      </c>
+      <c r="W6">
+        <v>414</v>
+      </c>
+      <c r="X6">
+        <v>202</v>
+      </c>
+      <c r="Y6">
+        <v>92</v>
+      </c>
+      <c r="Z6">
+        <v>460</v>
+      </c>
+      <c r="AA6">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>17.29</v>
+      </c>
+      <c r="F7">
+        <v>8.26</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>2703</v>
+      </c>
+      <c r="N7">
+        <v>2387</v>
+      </c>
+      <c r="O7">
+        <v>966</v>
+      </c>
+      <c r="P7">
+        <v>2028</v>
+      </c>
+      <c r="Q7">
+        <v>228</v>
+      </c>
+      <c r="R7">
+        <v>609</v>
+      </c>
+      <c r="S7">
+        <v>543</v>
+      </c>
+      <c r="T7">
+        <v>717</v>
+      </c>
+      <c r="U7">
+        <v>395</v>
+      </c>
+      <c r="V7">
+        <v>1241</v>
+      </c>
+      <c r="W7">
+        <v>500</v>
+      </c>
+      <c r="X7">
+        <v>198</v>
+      </c>
+      <c r="Y7">
+        <v>86</v>
+      </c>
+      <c r="Z7">
+        <v>421</v>
+      </c>
+      <c r="AA7">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>15.71</v>
+      </c>
+      <c r="F8">
+        <v>7.9</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>2350</v>
+      </c>
+      <c r="N8">
+        <v>2065</v>
+      </c>
+      <c r="O8">
+        <v>851</v>
+      </c>
+      <c r="P8">
+        <v>1878</v>
+      </c>
+      <c r="Q8">
+        <v>216</v>
+      </c>
+      <c r="R8">
+        <v>631</v>
+      </c>
+      <c r="S8">
+        <v>432</v>
+      </c>
+      <c r="T8">
+        <v>654</v>
+      </c>
+      <c r="U8">
+        <v>420</v>
+      </c>
+      <c r="V8">
+        <v>1178</v>
+      </c>
+      <c r="W8">
+        <v>453</v>
+      </c>
+      <c r="X8">
+        <v>301</v>
+      </c>
+      <c r="Y8">
+        <v>151</v>
+      </c>
+      <c r="Z8">
+        <v>480</v>
+      </c>
+      <c r="AA8">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>8.76</v>
+      </c>
+      <c r="F9">
+        <v>-0.91</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>2596</v>
+      </c>
+      <c r="N9">
+        <v>2192</v>
+      </c>
+      <c r="O9">
+        <v>913</v>
+      </c>
+      <c r="P9">
+        <v>1894</v>
+      </c>
+      <c r="Q9">
+        <v>326</v>
+      </c>
+      <c r="R9">
+        <v>759</v>
+      </c>
+      <c r="S9">
+        <v>393</v>
+      </c>
+      <c r="T9">
+        <v>538</v>
+      </c>
+      <c r="U9">
+        <v>349</v>
+      </c>
+      <c r="V9">
+        <v>1149</v>
+      </c>
+      <c r="W9">
+        <v>543</v>
+      </c>
+      <c r="X9">
+        <v>243</v>
+      </c>
+      <c r="Y9">
+        <v>122</v>
+      </c>
+      <c r="Z9">
+        <v>414</v>
+      </c>
+      <c r="AA9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>25.21</v>
+      </c>
+      <c r="F10">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>3079</v>
+      </c>
+      <c r="N10">
+        <v>2441</v>
+      </c>
+      <c r="O10">
+        <v>1049</v>
+      </c>
+      <c r="P10">
+        <v>2375</v>
+      </c>
+      <c r="Q10">
+        <v>301</v>
+      </c>
+      <c r="R10">
+        <v>782</v>
+      </c>
+      <c r="S10">
+        <v>682</v>
+      </c>
+      <c r="T10">
+        <v>899</v>
+      </c>
+      <c r="U10">
+        <v>569</v>
+      </c>
+      <c r="V10">
+        <v>1560</v>
+      </c>
+      <c r="W10">
+        <v>555</v>
+      </c>
+      <c r="X10">
+        <v>266</v>
+      </c>
+      <c r="Y10">
+        <v>162</v>
+      </c>
+      <c r="Z10">
+        <v>429</v>
+      </c>
+      <c r="AA10">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>-0.83</v>
+      </c>
+      <c r="F11">
+        <v>-1.47</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>2424</v>
+      </c>
+      <c r="N11">
+        <v>2362</v>
+      </c>
+      <c r="O11">
+        <v>855</v>
+      </c>
+      <c r="P11">
+        <v>1978</v>
+      </c>
+      <c r="Q11">
+        <v>177</v>
+      </c>
+      <c r="R11">
+        <v>575</v>
+      </c>
+      <c r="S11">
+        <v>537</v>
+      </c>
+      <c r="T11">
+        <v>815</v>
+      </c>
+      <c r="U11">
+        <v>445</v>
+      </c>
+      <c r="V11">
+        <v>1277</v>
+      </c>
+      <c r="W11">
+        <v>382</v>
+      </c>
+      <c r="X11">
+        <v>293</v>
+      </c>
+      <c r="Y11">
+        <v>112</v>
+      </c>
+      <c r="Z11">
+        <v>519</v>
+      </c>
+      <c r="AA11">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>14.64</v>
+      </c>
+      <c r="F12">
+        <v>6.79</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>2183</v>
+      </c>
+      <c r="N12">
+        <v>1932</v>
+      </c>
+      <c r="O12">
+        <v>783</v>
+      </c>
+      <c r="P12">
+        <v>1734</v>
+      </c>
+      <c r="Q12">
+        <v>186</v>
+      </c>
+      <c r="R12">
+        <v>557</v>
+      </c>
+      <c r="S12">
+        <v>431</v>
+      </c>
+      <c r="T12">
+        <v>669</v>
+      </c>
+      <c r="U12">
+        <v>406</v>
+      </c>
+      <c r="V12">
+        <v>1211</v>
+      </c>
+      <c r="W12">
+        <v>446</v>
+      </c>
+      <c r="X12">
+        <v>267</v>
+      </c>
+      <c r="Y12">
+        <v>200</v>
+      </c>
+      <c r="Z12">
+        <v>528</v>
+      </c>
+      <c r="AA12">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>11.89</v>
+      </c>
+      <c r="F13">
+        <v>7.16</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>2455</v>
+      </c>
+      <c r="N13">
+        <v>2258</v>
+      </c>
+      <c r="O13">
+        <v>890</v>
+      </c>
+      <c r="P13">
+        <v>2006</v>
+      </c>
+      <c r="Q13">
+        <v>203</v>
+      </c>
+      <c r="R13">
+        <v>648</v>
+      </c>
+      <c r="S13">
+        <v>472</v>
+      </c>
+      <c r="T13">
+        <v>671</v>
+      </c>
+      <c r="U13">
+        <v>455</v>
+      </c>
+      <c r="V13">
+        <v>1265</v>
+      </c>
+      <c r="W13">
+        <v>479</v>
+      </c>
+      <c r="X13">
+        <v>243</v>
+      </c>
+      <c r="Y13">
+        <v>94</v>
+      </c>
+      <c r="Z13">
+        <v>423</v>
+      </c>
+      <c r="AA13">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>17.03</v>
+      </c>
+      <c r="F14">
+        <v>9.56</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>2500</v>
+      </c>
+      <c r="N14">
+        <v>2246</v>
+      </c>
+      <c r="O14">
+        <v>905</v>
+      </c>
+      <c r="P14">
+        <v>1815</v>
+      </c>
+      <c r="Q14">
+        <v>212</v>
+      </c>
+      <c r="R14">
+        <v>548</v>
+      </c>
+      <c r="S14">
+        <v>478</v>
+      </c>
+      <c r="T14">
+        <v>672</v>
+      </c>
+      <c r="U14">
+        <v>333</v>
+      </c>
+      <c r="V14">
+        <v>1132</v>
+      </c>
+      <c r="W14">
+        <v>524</v>
+      </c>
+      <c r="X14">
+        <v>237</v>
+      </c>
+      <c r="Y14">
+        <v>161</v>
+      </c>
+      <c r="Z14">
+        <v>473</v>
+      </c>
+      <c r="AA14">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>14.11</v>
+      </c>
+      <c r="F15">
+        <v>9.02</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>2621</v>
+      </c>
+      <c r="N15">
+        <v>2365</v>
+      </c>
+      <c r="O15">
+        <v>948</v>
+      </c>
+      <c r="P15">
+        <v>2064</v>
+      </c>
+      <c r="Q15">
+        <v>213</v>
+      </c>
+      <c r="R15">
+        <v>587</v>
+      </c>
+      <c r="S15">
+        <v>512</v>
+      </c>
+      <c r="T15">
+        <v>779</v>
+      </c>
+      <c r="U15">
+        <v>464</v>
+      </c>
+      <c r="V15">
+        <v>1430</v>
+      </c>
+      <c r="W15">
+        <v>508</v>
+      </c>
+      <c r="X15">
+        <v>288</v>
+      </c>
+      <c r="Y15">
+        <v>190</v>
+      </c>
+      <c r="Z15">
+        <v>574</v>
+      </c>
+      <c r="AA15">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>12.11</v>
+      </c>
+      <c r="F16">
+        <v>3.83</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>2614</v>
+      </c>
+      <c r="N16">
+        <v>2291</v>
+      </c>
+      <c r="O16">
+        <v>912</v>
+      </c>
+      <c r="P16">
+        <v>1856</v>
+      </c>
+      <c r="Q16">
+        <v>182</v>
+      </c>
+      <c r="R16">
+        <v>516</v>
+      </c>
+      <c r="S16">
+        <v>608</v>
+      </c>
+      <c r="T16">
+        <v>916</v>
+      </c>
+      <c r="U16">
+        <v>358</v>
+      </c>
+      <c r="V16">
+        <v>1286</v>
+      </c>
+      <c r="W16">
+        <v>456</v>
+      </c>
+      <c r="X16">
+        <v>227</v>
+      </c>
+      <c r="Y16">
+        <v>142</v>
+      </c>
+      <c r="Z16">
+        <v>444</v>
+      </c>
+      <c r="AA16">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>6.74</v>
+      </c>
+      <c r="F17">
+        <v>3.48</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>2751</v>
+      </c>
+      <c r="N17">
+        <v>2624</v>
+      </c>
+      <c r="O17">
+        <v>958</v>
+      </c>
+      <c r="P17">
+        <v>2282</v>
+      </c>
+      <c r="Q17">
+        <v>290</v>
+      </c>
+      <c r="R17">
+        <v>814</v>
+      </c>
+      <c r="S17">
+        <v>545</v>
+      </c>
+      <c r="T17">
+        <v>768</v>
+      </c>
+      <c r="U17">
+        <v>440</v>
+      </c>
+      <c r="V17">
+        <v>1185</v>
+      </c>
+      <c r="W17">
+        <v>435</v>
+      </c>
+      <c r="X17">
+        <v>329</v>
+      </c>
+      <c r="Y17">
+        <v>103</v>
+      </c>
+      <c r="Z17">
+        <v>315</v>
+      </c>
+      <c r="AA17">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>19.88</v>
+      </c>
+      <c r="F18">
+        <v>10.28</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2949</v>
+      </c>
+      <c r="N18">
+        <v>2584</v>
+      </c>
+      <c r="O18">
+        <v>981</v>
+      </c>
+      <c r="P18">
+        <v>2182</v>
+      </c>
+      <c r="Q18">
+        <v>253</v>
+      </c>
+      <c r="R18">
+        <v>703</v>
+      </c>
+      <c r="S18">
+        <v>734</v>
+      </c>
+      <c r="T18">
+        <v>1098</v>
+      </c>
+      <c r="U18">
+        <v>559</v>
+      </c>
+      <c r="V18">
+        <v>1437</v>
+      </c>
+      <c r="W18">
+        <v>541</v>
+      </c>
+      <c r="X18">
+        <v>274</v>
+      </c>
+      <c r="Y18">
+        <v>187</v>
+      </c>
+      <c r="Z18">
+        <v>529</v>
+      </c>
+      <c r="AA18">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>24.68</v>
+      </c>
+      <c r="F19">
+        <v>8.25</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2937</v>
+      </c>
+      <c r="N19">
+        <v>2312</v>
+      </c>
+      <c r="O19">
+        <v>1033</v>
+      </c>
+      <c r="P19">
+        <v>2111</v>
+      </c>
+      <c r="Q19">
+        <v>262</v>
+      </c>
+      <c r="R19">
+        <v>648</v>
+      </c>
+      <c r="S19">
+        <v>609</v>
+      </c>
+      <c r="T19">
+        <v>871</v>
+      </c>
+      <c r="U19">
+        <v>468</v>
+      </c>
+      <c r="V19">
+        <v>1457</v>
+      </c>
+      <c r="W19">
+        <v>609</v>
+      </c>
+      <c r="X19">
+        <v>301</v>
+      </c>
+      <c r="Y19">
+        <v>232</v>
+      </c>
+      <c r="Z19">
+        <v>470</v>
+      </c>
+      <c r="AA19">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>21.13</v>
+      </c>
+      <c r="F20">
+        <v>6.82</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>3012</v>
+      </c>
+      <c r="N20">
+        <v>2468</v>
+      </c>
+      <c r="O20">
+        <v>1066</v>
+      </c>
+      <c r="P20">
+        <v>2228</v>
+      </c>
+      <c r="Q20">
+        <v>231</v>
+      </c>
+      <c r="R20">
+        <v>697</v>
+      </c>
+      <c r="S20">
+        <v>649</v>
+      </c>
+      <c r="T20">
+        <v>971</v>
+      </c>
+      <c r="U20">
+        <v>538</v>
+      </c>
+      <c r="V20">
+        <v>1584</v>
+      </c>
+      <c r="W20">
+        <v>573</v>
+      </c>
+      <c r="X20">
+        <v>279</v>
+      </c>
+      <c r="Y20">
+        <v>273</v>
+      </c>
+      <c r="Z20">
+        <v>538</v>
+      </c>
+      <c r="AA20">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>-3.33</v>
+      </c>
+      <c r="F21">
+        <v>-7.79</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <v>2478</v>
+      </c>
+      <c r="N21">
+        <v>2331</v>
+      </c>
+      <c r="O21">
+        <v>842</v>
+      </c>
+      <c r="P21">
+        <v>1853</v>
+      </c>
+      <c r="Q21">
+        <v>220</v>
+      </c>
+      <c r="R21">
+        <v>551</v>
+      </c>
+      <c r="S21">
+        <v>574</v>
+      </c>
+      <c r="T21">
+        <v>799</v>
+      </c>
+      <c r="U21">
+        <v>339</v>
+      </c>
+      <c r="V21">
+        <v>1201</v>
+      </c>
+      <c r="W21">
+        <v>495</v>
+      </c>
+      <c r="X21">
+        <v>203</v>
+      </c>
+      <c r="Y21">
+        <v>85</v>
+      </c>
+      <c r="Z21">
+        <v>429</v>
+      </c>
+      <c r="AA21">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>14.08</v>
+      </c>
+      <c r="F22">
+        <v>7.99</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>2505</v>
+      </c>
+      <c r="N22">
+        <v>2304</v>
+      </c>
+      <c r="O22">
+        <v>876</v>
+      </c>
+      <c r="P22">
+        <v>1960</v>
+      </c>
+      <c r="Q22">
+        <v>262</v>
+      </c>
+      <c r="R22">
+        <v>777</v>
+      </c>
+      <c r="S22">
+        <v>491</v>
+      </c>
+      <c r="T22">
+        <v>700</v>
+      </c>
+      <c r="U22">
+        <v>478</v>
+      </c>
+      <c r="V22">
+        <v>1217</v>
+      </c>
+      <c r="W22">
+        <v>511</v>
+      </c>
+      <c r="X22">
+        <v>258</v>
+      </c>
+      <c r="Y22">
+        <v>135</v>
+      </c>
+      <c r="Z22">
+        <v>453</v>
+      </c>
+      <c r="AA22">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>15.17</v>
+      </c>
+      <c r="F23">
+        <v>8.23</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>2485</v>
+      </c>
+      <c r="N23">
+        <v>2198</v>
+      </c>
+      <c r="O23">
+        <v>861</v>
+      </c>
+      <c r="P23">
+        <v>1890</v>
+      </c>
+      <c r="Q23">
+        <v>274</v>
+      </c>
+      <c r="R23">
+        <v>664</v>
+      </c>
+      <c r="S23">
+        <v>489</v>
+      </c>
+      <c r="T23">
+        <v>660</v>
+      </c>
+      <c r="U23">
+        <v>343</v>
+      </c>
+      <c r="V23">
+        <v>1071</v>
+      </c>
+      <c r="W23">
+        <v>516</v>
+      </c>
+      <c r="X23">
+        <v>269</v>
+      </c>
+      <c r="Y23">
+        <v>72</v>
+      </c>
+      <c r="Z23">
+        <v>353</v>
+      </c>
+      <c r="AA23">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>17.75</v>
+      </c>
+      <c r="F24">
+        <v>7.95</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>2629</v>
+      </c>
+      <c r="N24">
+        <v>2254</v>
+      </c>
+      <c r="O24">
+        <v>966</v>
+      </c>
+      <c r="P24">
+        <v>2052</v>
+      </c>
+      <c r="Q24">
+        <v>195</v>
+      </c>
+      <c r="R24">
+        <v>510</v>
+      </c>
+      <c r="S24">
+        <v>502</v>
+      </c>
+      <c r="T24">
+        <v>689</v>
+      </c>
+      <c r="U24">
+        <v>421</v>
+      </c>
+      <c r="V24">
+        <v>1270</v>
+      </c>
+      <c r="W24">
+        <v>545</v>
+      </c>
+      <c r="X24">
+        <v>256</v>
+      </c>
+      <c r="Y24">
+        <v>154</v>
+      </c>
+      <c r="Z24">
+        <v>383</v>
+      </c>
+      <c r="AA24">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>15.33</v>
+      </c>
+      <c r="F25">
+        <v>8.17</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>2658</v>
+      </c>
+      <c r="N25">
+        <v>2361</v>
+      </c>
+      <c r="O25">
+        <v>974</v>
+      </c>
+      <c r="P25">
+        <v>2068</v>
+      </c>
+      <c r="Q25">
+        <v>187</v>
+      </c>
+      <c r="R25">
+        <v>543</v>
+      </c>
+      <c r="S25">
+        <v>523</v>
+      </c>
+      <c r="T25">
+        <v>764</v>
+      </c>
+      <c r="U25">
+        <v>487</v>
+      </c>
+      <c r="V25">
+        <v>1426</v>
+      </c>
+      <c r="W25">
+        <v>606</v>
+      </c>
+      <c r="X25">
+        <v>242</v>
+      </c>
+      <c r="Y25">
+        <v>123</v>
+      </c>
+      <c r="Z25">
+        <v>514</v>
+      </c>
+      <c r="AA25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>15.64</v>
+      </c>
+      <c r="F26">
+        <v>7.32</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>2533</v>
+      </c>
+      <c r="N26">
+        <v>2242</v>
+      </c>
+      <c r="O26">
+        <v>912</v>
+      </c>
+      <c r="P26">
+        <v>1949</v>
+      </c>
+      <c r="Q26">
+        <v>246</v>
+      </c>
+      <c r="R26">
+        <v>617</v>
+      </c>
+      <c r="S26">
+        <v>463</v>
+      </c>
+      <c r="T26">
+        <v>661</v>
+      </c>
+      <c r="U26">
+        <v>375</v>
+      </c>
+      <c r="V26">
+        <v>1237</v>
+      </c>
+      <c r="W26">
+        <v>583</v>
+      </c>
+      <c r="X26">
+        <v>273</v>
+      </c>
+      <c r="Y26">
+        <v>199</v>
+      </c>
+      <c r="Z26">
+        <v>427</v>
+      </c>
+      <c r="AA26">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>179</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>17.39</v>
+      </c>
+      <c r="F27">
+        <v>6.36</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>2627</v>
+      </c>
+      <c r="N27">
+        <v>2252</v>
+      </c>
+      <c r="O27">
+        <v>926</v>
+      </c>
+      <c r="P27">
+        <v>2104</v>
+      </c>
+      <c r="Q27">
+        <v>258</v>
+      </c>
+      <c r="R27">
+        <v>701</v>
+      </c>
+      <c r="S27">
+        <v>517</v>
+      </c>
+      <c r="T27">
+        <v>714</v>
+      </c>
+      <c r="U27">
+        <v>441</v>
+      </c>
+      <c r="V27">
+        <v>1200</v>
+      </c>
+      <c r="W27">
+        <v>522</v>
+      </c>
+      <c r="X27">
+        <v>371</v>
+      </c>
+      <c r="Y27">
+        <v>160</v>
+      </c>
+      <c r="Z27">
+        <v>432</v>
+      </c>
+      <c r="AA27">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>3.93</v>
+      </c>
+      <c r="F28">
+        <v>-2.35</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>14</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>2228</v>
+      </c>
+      <c r="N28">
+        <v>1960</v>
+      </c>
+      <c r="O28">
+        <v>791</v>
+      </c>
+      <c r="P28">
+        <v>1636</v>
+      </c>
+      <c r="Q28">
+        <v>210</v>
+      </c>
+      <c r="R28">
+        <v>526</v>
+      </c>
+      <c r="S28">
+        <v>436</v>
+      </c>
+      <c r="T28">
+        <v>603</v>
+      </c>
+      <c r="U28">
+        <v>283</v>
+      </c>
+      <c r="V28">
+        <v>1048</v>
+      </c>
+      <c r="W28">
+        <v>396</v>
+      </c>
+      <c r="X28">
+        <v>206</v>
+      </c>
+      <c r="Y28">
+        <v>106</v>
+      </c>
+      <c r="Z28">
+        <v>390</v>
+      </c>
+      <c r="AA28">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>-1.18</v>
+      </c>
+      <c r="F29">
+        <v>-6.15</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>12</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>2813</v>
+      </c>
+      <c r="N29">
+        <v>2606</v>
+      </c>
+      <c r="O29">
+        <v>960</v>
+      </c>
+      <c r="P29">
+        <v>2239</v>
+      </c>
+      <c r="Q29">
+        <v>205</v>
+      </c>
+      <c r="R29">
+        <v>617</v>
+      </c>
+      <c r="S29">
+        <v>688</v>
+      </c>
+      <c r="T29">
+        <v>983</v>
+      </c>
+      <c r="U29">
+        <v>568</v>
+      </c>
+      <c r="V29">
+        <v>1488</v>
+      </c>
+      <c r="W29">
+        <v>461</v>
+      </c>
+      <c r="X29">
+        <v>243</v>
+      </c>
+      <c r="Y29">
+        <v>152</v>
+      </c>
+      <c r="Z29">
+        <v>499</v>
+      </c>
+      <c r="AA29">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>186</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>8.69</v>
+      </c>
+      <c r="F30">
+        <v>-3.89</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>15</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>11</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>2753</v>
+      </c>
+      <c r="N30">
+        <v>2175</v>
+      </c>
+      <c r="O30">
+        <v>978</v>
+      </c>
+      <c r="P30">
+        <v>1961</v>
+      </c>
+      <c r="Q30">
+        <v>226</v>
+      </c>
+      <c r="R30">
+        <v>599</v>
+      </c>
+      <c r="S30">
+        <v>571</v>
+      </c>
+      <c r="T30">
+        <v>821</v>
+      </c>
+      <c r="U30">
+        <v>439</v>
+      </c>
+      <c r="V30">
+        <v>1319</v>
+      </c>
+      <c r="W30">
+        <v>556</v>
+      </c>
+      <c r="X30">
+        <v>347</v>
+      </c>
+      <c r="Y30">
+        <v>196</v>
+      </c>
+      <c r="Z30">
+        <v>527</v>
+      </c>
+      <c r="AA30">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>189</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>12.57</v>
+      </c>
+      <c r="F31">
+        <v>4.82</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>2485</v>
+      </c>
+      <c r="N31">
+        <v>2168</v>
+      </c>
+      <c r="O31">
+        <v>899</v>
+      </c>
+      <c r="P31">
+        <v>1950</v>
+      </c>
+      <c r="Q31">
+        <v>231</v>
+      </c>
+      <c r="R31">
+        <v>695</v>
+      </c>
+      <c r="S31">
+        <v>456</v>
+      </c>
+      <c r="T31">
+        <v>637</v>
+      </c>
+      <c r="U31">
+        <v>337</v>
+      </c>
+      <c r="V31">
+        <v>1149</v>
+      </c>
+      <c r="W31">
+        <v>551</v>
+      </c>
+      <c r="X31">
+        <v>266</v>
+      </c>
+      <c r="Y31">
+        <v>117</v>
+      </c>
+      <c r="Z31">
+        <v>395</v>
+      </c>
+      <c r="AA31">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>192</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>2.06</v>
+      </c>
+      <c r="F32">
+        <v>1.66</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <v>2662</v>
+      </c>
+      <c r="N32">
+        <v>2639</v>
+      </c>
+      <c r="O32">
+        <v>919</v>
+      </c>
+      <c r="P32">
+        <v>1997</v>
+      </c>
+      <c r="Q32">
+        <v>287</v>
+      </c>
+      <c r="R32">
+        <v>774</v>
+      </c>
+      <c r="S32">
+        <v>537</v>
+      </c>
+      <c r="T32">
+        <v>767</v>
+      </c>
+      <c r="U32">
+        <v>358</v>
+      </c>
+      <c r="V32">
+        <v>1212</v>
+      </c>
+      <c r="W32">
+        <v>484</v>
+      </c>
+      <c r="X32">
+        <v>203</v>
+      </c>
+      <c r="Y32">
+        <v>111</v>
+      </c>
+      <c r="Z32">
+        <v>437</v>
+      </c>
+      <c r="AA32">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>193</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>12.49</v>
+      </c>
+      <c r="F33">
+        <v>3.84</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>17</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>2655</v>
+      </c>
+      <c r="N33">
+        <v>2352</v>
+      </c>
+      <c r="O33">
+        <v>887</v>
+      </c>
+      <c r="P33">
+        <v>2023</v>
+      </c>
+      <c r="Q33">
+        <v>273</v>
+      </c>
+      <c r="R33">
+        <v>739</v>
+      </c>
+      <c r="S33">
+        <v>608</v>
+      </c>
+      <c r="T33">
+        <v>909</v>
+      </c>
+      <c r="U33">
+        <v>458</v>
+      </c>
+      <c r="V33">
+        <v>1347</v>
+      </c>
+      <c r="W33">
+        <v>497</v>
+      </c>
+      <c r="X33">
+        <v>232</v>
+      </c>
+      <c r="Y33">
+        <v>120</v>
+      </c>
+      <c r="Z33">
+        <v>387</v>
+      </c>
+      <c r="AA33">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>207</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="F34">
+        <v>-4.72</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>9</v>
+      </c>
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <v>2437</v>
+      </c>
+      <c r="N34">
+        <v>2303</v>
+      </c>
+      <c r="O34">
+        <v>798</v>
+      </c>
+      <c r="P34">
+        <v>1748</v>
+      </c>
+      <c r="Q34">
+        <v>179</v>
+      </c>
+      <c r="R34">
+        <v>538</v>
+      </c>
+      <c r="S34">
+        <v>662</v>
+      </c>
+      <c r="T34">
+        <v>921</v>
+      </c>
+      <c r="U34">
+        <v>364</v>
+      </c>
+      <c r="V34">
+        <v>1220</v>
+      </c>
+      <c r="W34">
+        <v>394</v>
+      </c>
+      <c r="X34">
+        <v>144</v>
+      </c>
+      <c r="Y34">
+        <v>94</v>
+      </c>
+      <c r="Z34">
+        <v>485</v>
+      </c>
+      <c r="AA34">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>212</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>12.03</v>
+      </c>
+      <c r="F35">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>2216</v>
+      </c>
+      <c r="N35">
+        <v>1929</v>
+      </c>
+      <c r="O35">
+        <v>747</v>
+      </c>
+      <c r="P35">
+        <v>1741</v>
+      </c>
+      <c r="Q35">
+        <v>233</v>
+      </c>
+      <c r="R35">
+        <v>659</v>
+      </c>
+      <c r="S35">
+        <v>489</v>
+      </c>
+      <c r="T35">
+        <v>645</v>
+      </c>
+      <c r="U35">
+        <v>333</v>
+      </c>
+      <c r="V35">
+        <v>1130</v>
+      </c>
+      <c r="W35">
+        <v>367</v>
+      </c>
+      <c r="X35">
+        <v>198</v>
+      </c>
+      <c r="Y35">
+        <v>70</v>
+      </c>
+      <c r="Z35">
+        <v>372</v>
+      </c>
+      <c r="AA35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>215</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>13.14</v>
+      </c>
+      <c r="F36">
+        <v>6.22</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>2635</v>
+      </c>
+      <c r="N36">
+        <v>2393</v>
+      </c>
+      <c r="O36">
+        <v>918</v>
+      </c>
+      <c r="P36">
+        <v>1953</v>
+      </c>
+      <c r="Q36">
+        <v>261</v>
+      </c>
+      <c r="R36">
+        <v>673</v>
+      </c>
+      <c r="S36">
+        <v>538</v>
+      </c>
+      <c r="T36">
+        <v>744</v>
+      </c>
+      <c r="U36">
+        <v>402</v>
+      </c>
+      <c r="V36">
+        <v>1250</v>
+      </c>
+      <c r="W36">
+        <v>585</v>
+      </c>
+      <c r="X36">
+        <v>194</v>
+      </c>
+      <c r="Y36">
+        <v>104</v>
+      </c>
+      <c r="Z36">
+        <v>362</v>
+      </c>
+      <c r="AA36">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>216</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>-0.64</v>
+      </c>
+      <c r="F37">
+        <v>-2.96</v>
+      </c>
+      <c r="G37">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>2676</v>
+      </c>
+      <c r="N37">
+        <v>2504</v>
+      </c>
+      <c r="O37">
+        <v>920</v>
+      </c>
+      <c r="P37">
+        <v>2053</v>
+      </c>
+      <c r="Q37">
+        <v>206</v>
+      </c>
+      <c r="R37">
+        <v>640</v>
+      </c>
+      <c r="S37">
+        <v>630</v>
+      </c>
+      <c r="T37">
+        <v>876</v>
+      </c>
+      <c r="U37">
+        <v>477</v>
+      </c>
+      <c r="V37">
+        <v>1344</v>
+      </c>
+      <c r="W37">
+        <v>461</v>
+      </c>
+      <c r="X37">
+        <v>236</v>
+      </c>
+      <c r="Y37">
+        <v>169</v>
+      </c>
+      <c r="Z37">
+        <v>485</v>
+      </c>
+      <c r="AA37">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>217</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="F38">
+        <v>7.37</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>2740</v>
+      </c>
+      <c r="N38">
+        <v>2274</v>
+      </c>
+      <c r="O38">
+        <v>983</v>
+      </c>
+      <c r="P38">
+        <v>1999</v>
+      </c>
+      <c r="Q38">
+        <v>276</v>
+      </c>
+      <c r="R38">
+        <v>708</v>
+      </c>
+      <c r="S38">
+        <v>498</v>
+      </c>
+      <c r="T38">
+        <v>716</v>
+      </c>
+      <c r="U38">
+        <v>325</v>
+      </c>
+      <c r="V38">
+        <v>1234</v>
+      </c>
+      <c r="W38">
+        <v>545</v>
+      </c>
+      <c r="X38">
+        <v>262</v>
+      </c>
+      <c r="Y38">
+        <v>157</v>
+      </c>
+      <c r="Z38">
+        <v>413</v>
+      </c>
+      <c r="AA38">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>218</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F39">
+        <v>-0.03</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>13</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
+      <c r="M39">
+        <v>2763</v>
+      </c>
+      <c r="N39">
+        <v>2569</v>
+      </c>
+      <c r="O39">
+        <v>925</v>
+      </c>
+      <c r="P39">
+        <v>2153</v>
+      </c>
+      <c r="Q39">
+        <v>278</v>
+      </c>
+      <c r="R39">
+        <v>759</v>
+      </c>
+      <c r="S39">
+        <v>635</v>
+      </c>
+      <c r="T39">
+        <v>883</v>
+      </c>
+      <c r="U39">
+        <v>443</v>
+      </c>
+      <c r="V39">
+        <v>1371</v>
+      </c>
+      <c r="W39">
+        <v>524</v>
+      </c>
+      <c r="X39">
+        <v>278</v>
+      </c>
+      <c r="Y39">
+        <v>97</v>
+      </c>
+      <c r="Z39">
+        <v>473</v>
+      </c>
+      <c r="AA39">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>219</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>12.34</v>
+      </c>
+      <c r="F40">
+        <v>6.97</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>15</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40">
+        <v>2437</v>
+      </c>
+      <c r="N40">
+        <v>2243</v>
+      </c>
+      <c r="O40">
+        <v>839</v>
+      </c>
+      <c r="P40">
+        <v>1861</v>
+      </c>
+      <c r="Q40">
+        <v>274</v>
+      </c>
+      <c r="R40">
+        <v>784</v>
+      </c>
+      <c r="S40">
+        <v>485</v>
+      </c>
+      <c r="T40">
+        <v>679</v>
+      </c>
+      <c r="U40">
+        <v>327</v>
+      </c>
+      <c r="V40">
+        <v>1169</v>
+      </c>
+      <c r="W40">
+        <v>413</v>
+      </c>
+      <c r="X40">
+        <v>214</v>
+      </c>
+      <c r="Y40">
+        <v>84</v>
+      </c>
+      <c r="Z40">
+        <v>418</v>
+      </c>
+      <c r="AA40">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>221</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>11.39</v>
+      </c>
+      <c r="F41">
+        <v>1.78</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>15</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="M41">
+        <v>2415</v>
+      </c>
+      <c r="N41">
+        <v>2069</v>
+      </c>
+      <c r="O41">
+        <v>922</v>
+      </c>
+      <c r="P41">
+        <v>2061</v>
+      </c>
+      <c r="Q41">
+        <v>166</v>
+      </c>
+      <c r="R41">
+        <v>523</v>
+      </c>
+      <c r="S41">
+        <v>405</v>
+      </c>
+      <c r="T41">
+        <v>625</v>
+      </c>
+      <c r="U41">
+        <v>540</v>
+      </c>
+      <c r="V41">
+        <v>1394</v>
+      </c>
+      <c r="W41">
+        <v>554</v>
+      </c>
+      <c r="X41">
+        <v>282</v>
+      </c>
+      <c r="Y41">
+        <v>105</v>
+      </c>
+      <c r="Z41">
+        <v>457</v>
+      </c>
+      <c r="AA41">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>229</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>14.3</v>
+      </c>
+      <c r="F42">
+        <v>7.39</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>2336</v>
+      </c>
+      <c r="N42">
+        <v>2101</v>
+      </c>
+      <c r="O42">
+        <v>809</v>
+      </c>
+      <c r="P42">
+        <v>1811</v>
+      </c>
+      <c r="Q42">
+        <v>181</v>
+      </c>
+      <c r="R42">
+        <v>526</v>
+      </c>
+      <c r="S42">
+        <v>537</v>
+      </c>
+      <c r="T42">
+        <v>775</v>
+      </c>
+      <c r="U42">
+        <v>420</v>
+      </c>
+      <c r="V42">
+        <v>1269</v>
+      </c>
+      <c r="W42">
+        <v>536</v>
+      </c>
+      <c r="X42">
+        <v>177</v>
+      </c>
+      <c r="Y42">
+        <v>139</v>
+      </c>
+      <c r="Z42">
+        <v>421</v>
+      </c>
+      <c r="AA42">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>235</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>17.52</v>
+      </c>
+      <c r="F43">
+        <v>8.81</v>
+      </c>
+      <c r="G43">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>15</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>2467</v>
+      </c>
+      <c r="N43">
+        <v>2144</v>
+      </c>
+      <c r="O43">
+        <v>867</v>
+      </c>
+      <c r="P43">
+        <v>1957</v>
+      </c>
+      <c r="Q43">
+        <v>187</v>
+      </c>
+      <c r="R43">
+        <v>588</v>
+      </c>
+      <c r="S43">
+        <v>546</v>
+      </c>
+      <c r="T43">
+        <v>755</v>
+      </c>
+      <c r="U43">
+        <v>351</v>
+      </c>
+      <c r="V43">
+        <v>1170</v>
+      </c>
+      <c r="W43">
+        <v>493</v>
+      </c>
+      <c r="X43">
+        <v>248</v>
+      </c>
+      <c r="Y43">
+        <v>162</v>
+      </c>
+      <c r="Z43">
+        <v>381</v>
+      </c>
+      <c r="AA43">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>240</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="F44">
+        <v>3.43</v>
+      </c>
+      <c r="G44">
+        <v>13</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>2427</v>
+      </c>
+      <c r="N44">
+        <v>2196</v>
+      </c>
+      <c r="O44">
+        <v>868</v>
+      </c>
+      <c r="P44">
+        <v>1943</v>
+      </c>
+      <c r="Q44">
+        <v>250</v>
+      </c>
+      <c r="R44">
+        <v>704</v>
+      </c>
+      <c r="S44">
+        <v>441</v>
+      </c>
+      <c r="T44">
+        <v>630</v>
+      </c>
+      <c r="U44">
+        <v>304</v>
+      </c>
+      <c r="V44">
+        <v>1139</v>
+      </c>
+      <c r="W44">
+        <v>442</v>
+      </c>
+      <c r="X44">
+        <v>289</v>
+      </c>
+      <c r="Y44">
+        <v>158</v>
+      </c>
+      <c r="Z44">
+        <v>384</v>
+      </c>
+      <c r="AA44">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>242</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>-3.71</v>
+      </c>
+      <c r="F45">
+        <v>-6.15</v>
+      </c>
+      <c r="G45">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>2399</v>
+      </c>
+      <c r="N45">
+        <v>2306</v>
+      </c>
+      <c r="O45">
+        <v>815</v>
+      </c>
+      <c r="P45">
+        <v>1868</v>
+      </c>
+      <c r="Q45">
+        <v>197</v>
+      </c>
+      <c r="R45">
+        <v>546</v>
+      </c>
+      <c r="S45">
+        <v>572</v>
+      </c>
+      <c r="T45">
+        <v>859</v>
+      </c>
+      <c r="U45">
+        <v>412</v>
+      </c>
+      <c r="V45">
+        <v>1227</v>
+      </c>
+      <c r="W45">
+        <v>433</v>
+      </c>
+      <c r="X45">
+        <v>267</v>
+      </c>
+      <c r="Y45">
+        <v>80</v>
+      </c>
+      <c r="Z45">
+        <v>520</v>
+      </c>
+      <c r="AA45">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>249</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>13.38</v>
+      </c>
+      <c r="F46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>14</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>2668</v>
+      </c>
+      <c r="N46">
+        <v>2258</v>
+      </c>
+      <c r="O46">
+        <v>944</v>
+      </c>
+      <c r="P46">
+        <v>1950</v>
+      </c>
+      <c r="Q46">
+        <v>284</v>
+      </c>
+      <c r="R46">
+        <v>699</v>
+      </c>
+      <c r="S46">
+        <v>496</v>
+      </c>
+      <c r="T46">
+        <v>652</v>
+      </c>
+      <c r="U46">
+        <v>370</v>
+      </c>
+      <c r="V46">
+        <v>1244</v>
+      </c>
+      <c r="W46">
+        <v>543</v>
+      </c>
+      <c r="X46">
+        <v>168</v>
+      </c>
+      <c r="Y46">
+        <v>176</v>
+      </c>
+      <c r="Z46">
+        <v>394</v>
+      </c>
+      <c r="AA46">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>251</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>3.71</v>
+      </c>
+      <c r="F47">
+        <v>-3.37</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>13</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>2616</v>
+      </c>
+      <c r="N47">
+        <v>2284</v>
+      </c>
+      <c r="O47">
+        <v>909</v>
+      </c>
+      <c r="P47">
+        <v>1963</v>
+      </c>
+      <c r="Q47">
+        <v>287</v>
+      </c>
+      <c r="R47">
+        <v>775</v>
+      </c>
+      <c r="S47">
+        <v>511</v>
+      </c>
+      <c r="T47">
+        <v>727</v>
+      </c>
+      <c r="U47">
+        <v>410</v>
+      </c>
+      <c r="V47">
+        <v>1247</v>
+      </c>
+      <c r="W47">
+        <v>673</v>
+      </c>
+      <c r="X47">
+        <v>257</v>
+      </c>
+      <c r="Y47">
+        <v>85</v>
+      </c>
+      <c r="Z47">
+        <v>442</v>
+      </c>
+      <c r="AA47">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>253</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>11.34</v>
+      </c>
+      <c r="F48">
+        <v>4.21</v>
+      </c>
+      <c r="G48">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>9</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>2389</v>
+      </c>
+      <c r="N48">
+        <v>2101</v>
+      </c>
+      <c r="O48">
+        <v>875</v>
+      </c>
+      <c r="P48">
+        <v>1846</v>
+      </c>
+      <c r="Q48">
+        <v>179</v>
+      </c>
+      <c r="R48">
+        <v>564</v>
+      </c>
+      <c r="S48">
+        <v>460</v>
+      </c>
+      <c r="T48">
+        <v>741</v>
+      </c>
+      <c r="U48">
+        <v>444</v>
+      </c>
+      <c r="V48">
+        <v>1257</v>
+      </c>
+      <c r="W48">
+        <v>458</v>
+      </c>
+      <c r="X48">
+        <v>251</v>
+      </c>
+      <c r="Y48">
+        <v>156</v>
+      </c>
+      <c r="Z48">
+        <v>453</v>
+      </c>
+      <c r="AA48">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>260</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>8.48</v>
+      </c>
+      <c r="F49">
+        <v>-1.17</v>
+      </c>
+      <c r="G49">
+        <v>17</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>2554</v>
+      </c>
+      <c r="N49">
+        <v>2226</v>
+      </c>
+      <c r="O49">
+        <v>930</v>
+      </c>
+      <c r="P49">
+        <v>2048</v>
+      </c>
+      <c r="Q49">
+        <v>160</v>
+      </c>
+      <c r="R49">
+        <v>498</v>
+      </c>
+      <c r="S49">
+        <v>534</v>
+      </c>
+      <c r="T49">
+        <v>793</v>
+      </c>
+      <c r="U49">
+        <v>442</v>
+      </c>
+      <c r="V49">
+        <v>1310</v>
+      </c>
+      <c r="W49">
+        <v>486</v>
+      </c>
+      <c r="X49">
+        <v>298</v>
+      </c>
+      <c r="Y49">
+        <v>119</v>
+      </c>
+      <c r="Z49">
+        <v>418</v>
+      </c>
+      <c r="AA49">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>281</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>21.72</v>
+      </c>
+      <c r="F50">
+        <v>7.21</v>
+      </c>
+      <c r="G50">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>2832</v>
+      </c>
+      <c r="N50">
+        <v>2324</v>
+      </c>
+      <c r="O50">
+        <v>1042</v>
+      </c>
+      <c r="P50">
+        <v>2021</v>
+      </c>
+      <c r="Q50">
+        <v>244</v>
+      </c>
+      <c r="R50">
+        <v>624</v>
+      </c>
+      <c r="S50">
+        <v>504</v>
+      </c>
+      <c r="T50">
+        <v>745</v>
+      </c>
+      <c r="U50">
+        <v>417</v>
+      </c>
+      <c r="V50">
+        <v>1337</v>
+      </c>
+      <c r="W50">
+        <v>673</v>
+      </c>
+      <c r="X50">
+        <v>336</v>
+      </c>
+      <c r="Y50">
+        <v>221</v>
+      </c>
+      <c r="Z50">
+        <v>532</v>
+      </c>
+      <c r="AA50">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>282</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>29</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>12.44</v>
+      </c>
+      <c r="F51">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>12</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>2273</v>
+      </c>
+      <c r="N51">
+        <v>1987</v>
+      </c>
+      <c r="O51">
+        <v>851</v>
+      </c>
+      <c r="P51">
+        <v>1942</v>
+      </c>
+      <c r="Q51">
+        <v>204</v>
+      </c>
+      <c r="R51">
+        <v>605</v>
+      </c>
+      <c r="S51">
+        <v>367</v>
+      </c>
+      <c r="T51">
+        <v>533</v>
+      </c>
+      <c r="U51">
+        <v>377</v>
+      </c>
+      <c r="V51">
+        <v>1281</v>
+      </c>
+      <c r="W51">
+        <v>515</v>
+      </c>
+      <c r="X51">
+        <v>163</v>
+      </c>
+      <c r="Y51">
+        <v>104</v>
+      </c>
+      <c r="Z51">
+        <v>358</v>
+      </c>
+      <c r="AA51">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>286</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>28</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>16.05</v>
+      </c>
+      <c r="F52">
+        <v>7.75</v>
+      </c>
+      <c r="G52">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>15</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>5</v>
+      </c>
+      <c r="M52">
+        <v>2720</v>
+      </c>
+      <c r="N52">
+        <v>2413</v>
+      </c>
+      <c r="O52">
+        <v>991</v>
+      </c>
+      <c r="P52">
+        <v>2174</v>
+      </c>
+      <c r="Q52">
+        <v>218</v>
+      </c>
+      <c r="R52">
+        <v>681</v>
+      </c>
+      <c r="S52">
+        <v>520</v>
+      </c>
+      <c r="T52">
+        <v>775</v>
+      </c>
+      <c r="U52">
+        <v>441</v>
+      </c>
+      <c r="V52">
+        <v>1353</v>
+      </c>
+      <c r="W52">
+        <v>530</v>
+      </c>
+      <c r="X52">
+        <v>290</v>
+      </c>
+      <c r="Y52">
+        <v>136</v>
+      </c>
+      <c r="Z52">
+        <v>490</v>
+      </c>
+      <c r="AA52">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>288</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>15.24</v>
+      </c>
+      <c r="F53">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G53">
+        <v>11</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>15</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>2426</v>
+      </c>
+      <c r="N53">
+        <v>2192</v>
+      </c>
+      <c r="O53">
+        <v>813</v>
+      </c>
+      <c r="P53">
+        <v>1846</v>
+      </c>
+      <c r="Q53">
+        <v>210</v>
+      </c>
+      <c r="R53">
+        <v>626</v>
+      </c>
+      <c r="S53">
+        <v>590</v>
+      </c>
+      <c r="T53">
+        <v>892</v>
+      </c>
+      <c r="U53">
+        <v>400</v>
+      </c>
+      <c r="V53">
+        <v>1252</v>
+      </c>
+      <c r="W53">
+        <v>417</v>
+      </c>
+      <c r="X53">
+        <v>223</v>
+      </c>
+      <c r="Y53">
+        <v>113</v>
+      </c>
+      <c r="Z53">
+        <v>417</v>
+      </c>
+      <c r="AA53">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>291</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>26</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>12.66</v>
+      </c>
+      <c r="F54">
+        <v>1.96</v>
+      </c>
+      <c r="G54">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>8</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>2484</v>
+      </c>
+      <c r="N54">
+        <v>2131</v>
+      </c>
+      <c r="O54">
+        <v>891</v>
+      </c>
+      <c r="P54">
+        <v>1879</v>
+      </c>
+      <c r="Q54">
+        <v>201</v>
+      </c>
+      <c r="R54">
+        <v>586</v>
+      </c>
+      <c r="S54">
+        <v>501</v>
+      </c>
+      <c r="T54">
+        <v>744</v>
+      </c>
+      <c r="U54">
+        <v>323</v>
+      </c>
+      <c r="V54">
+        <v>1193</v>
+      </c>
+      <c r="W54">
+        <v>488</v>
+      </c>
+      <c r="X54">
+        <v>288</v>
+      </c>
+      <c r="Y54">
+        <v>120</v>
+      </c>
+      <c r="Z54">
+        <v>435</v>
+      </c>
+      <c r="AA54">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>297</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="F55">
+        <v>7.38</v>
+      </c>
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>15</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+      <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="M55">
+        <v>2761</v>
+      </c>
+      <c r="N55">
+        <v>2381</v>
+      </c>
+      <c r="O55">
+        <v>1005</v>
+      </c>
+      <c r="P55">
+        <v>2158</v>
+      </c>
+      <c r="Q55">
+        <v>195</v>
+      </c>
+      <c r="R55">
+        <v>566</v>
+      </c>
+      <c r="S55">
+        <v>556</v>
+      </c>
+      <c r="T55">
+        <v>878</v>
+      </c>
+      <c r="U55">
+        <v>503</v>
+      </c>
+      <c r="V55">
+        <v>1425</v>
+      </c>
+      <c r="W55">
+        <v>489</v>
+      </c>
+      <c r="X55">
+        <v>269</v>
+      </c>
+      <c r="Y55">
+        <v>194</v>
+      </c>
+      <c r="Z55">
+        <v>464</v>
+      </c>
+      <c r="AA55">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>304</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>27</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>13.62</v>
+      </c>
+      <c r="F56">
+        <v>1.23</v>
+      </c>
+      <c r="G56">
+        <v>14</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>8</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>2559</v>
+      </c>
+      <c r="N56">
+        <v>2097</v>
+      </c>
+      <c r="O56">
+        <v>941</v>
+      </c>
+      <c r="P56">
+        <v>1928</v>
+      </c>
+      <c r="Q56">
+        <v>242</v>
+      </c>
+      <c r="R56">
+        <v>585</v>
+      </c>
+      <c r="S56">
+        <v>435</v>
+      </c>
+      <c r="T56">
+        <v>574</v>
+      </c>
+      <c r="U56">
+        <v>362</v>
+      </c>
+      <c r="V56">
+        <v>1238</v>
+      </c>
+      <c r="W56">
+        <v>584</v>
+      </c>
+      <c r="X56">
+        <v>162</v>
+      </c>
+      <c r="Y56">
+        <v>123</v>
+      </c>
+      <c r="Z56">
+        <v>358</v>
+      </c>
+      <c r="AA56">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>308</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>15.24</v>
+      </c>
+      <c r="F57">
+        <v>7.86</v>
+      </c>
+      <c r="G57">
+        <v>12</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>14</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>7</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>2537</v>
+      </c>
+      <c r="N57">
+        <v>2274</v>
+      </c>
+      <c r="O57">
+        <v>859</v>
+      </c>
+      <c r="P57">
+        <v>1829</v>
+      </c>
+      <c r="Q57">
+        <v>203</v>
+      </c>
+      <c r="R57">
+        <v>552</v>
+      </c>
+      <c r="S57">
+        <v>616</v>
+      </c>
+      <c r="T57">
+        <v>854</v>
+      </c>
+      <c r="U57">
+        <v>361</v>
+      </c>
+      <c r="V57">
+        <v>1197</v>
+      </c>
+      <c r="W57">
+        <v>436</v>
+      </c>
+      <c r="X57">
+        <v>188</v>
+      </c>
+      <c r="Y57">
+        <v>171</v>
+      </c>
+      <c r="Z57">
+        <v>448</v>
+      </c>
+      <c r="AA57">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>309</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>-1.26</v>
+      </c>
+      <c r="F58">
+        <v>-6.69</v>
+      </c>
+      <c r="G58">
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>12</v>
+      </c>
+      <c r="L58">
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <v>2457</v>
+      </c>
+      <c r="N58">
+        <v>2267</v>
+      </c>
+      <c r="O58">
+        <v>826</v>
+      </c>
+      <c r="P58">
+        <v>1884</v>
+      </c>
+      <c r="Q58">
+        <v>166</v>
+      </c>
+      <c r="R58">
+        <v>524</v>
+      </c>
+      <c r="S58">
+        <v>639</v>
+      </c>
+      <c r="T58">
+        <v>930</v>
+      </c>
+      <c r="U58">
+        <v>433</v>
+      </c>
+      <c r="V58">
+        <v>1291</v>
+      </c>
+      <c r="W58">
+        <v>423</v>
+      </c>
+      <c r="X58">
+        <v>239</v>
+      </c>
+      <c r="Y58">
+        <v>141</v>
+      </c>
+      <c r="Z58">
+        <v>487</v>
+      </c>
+      <c r="AA58">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>310</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>16.72</v>
+      </c>
+      <c r="F59">
+        <v>7.75</v>
+      </c>
+      <c r="G59">
+        <v>13</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>12</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>6</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>2700</v>
+      </c>
+      <c r="N59">
+        <v>2404</v>
+      </c>
+      <c r="O59">
+        <v>899</v>
+      </c>
+      <c r="P59">
+        <v>1962</v>
+      </c>
+      <c r="Q59">
+        <v>252</v>
+      </c>
+      <c r="R59">
+        <v>676</v>
+      </c>
+      <c r="S59">
+        <v>650</v>
+      </c>
+      <c r="T59">
+        <v>861</v>
+      </c>
+      <c r="U59">
+        <v>441</v>
+      </c>
+      <c r="V59">
+        <v>1272</v>
+      </c>
+      <c r="W59">
+        <v>448</v>
+      </c>
+      <c r="X59">
+        <v>259</v>
+      </c>
+      <c r="Y59">
+        <v>133</v>
+      </c>
+      <c r="Z59">
+        <v>452</v>
+      </c>
+      <c r="AA59">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>316</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>11.45</v>
+      </c>
+      <c r="F60">
+        <v>8.85</v>
+      </c>
+      <c r="G60">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+      <c r="I60">
+        <v>13</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60">
+        <v>2257</v>
+      </c>
+      <c r="N60">
+        <v>2155</v>
+      </c>
+      <c r="O60">
+        <v>811</v>
+      </c>
+      <c r="P60">
+        <v>1869</v>
+      </c>
+      <c r="Q60">
+        <v>134</v>
+      </c>
+      <c r="R60">
+        <v>435</v>
+      </c>
+      <c r="S60">
+        <v>501</v>
+      </c>
+      <c r="T60">
+        <v>762</v>
+      </c>
+      <c r="U60">
+        <v>463</v>
+      </c>
+      <c r="V60">
+        <v>1306</v>
+      </c>
+      <c r="W60">
+        <v>369</v>
+      </c>
+      <c r="X60">
+        <v>221</v>
+      </c>
+      <c r="Y60">
+        <v>162</v>
+      </c>
+      <c r="Z60">
+        <v>471</v>
+      </c>
+      <c r="AA60">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>318</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>15.64</v>
+      </c>
+      <c r="F61">
+        <v>7.49</v>
+      </c>
+      <c r="G61">
+        <v>11</v>
+      </c>
+      <c r="H61">
+        <v>7</v>
+      </c>
+      <c r="I61">
+        <v>17</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>2851</v>
+      </c>
+      <c r="N61">
+        <v>2519</v>
+      </c>
+      <c r="O61">
+        <v>1004</v>
+      </c>
+      <c r="P61">
+        <v>2212</v>
+      </c>
+      <c r="Q61">
+        <v>191</v>
+      </c>
+      <c r="R61">
+        <v>568</v>
+      </c>
+      <c r="S61">
+        <v>652</v>
+      </c>
+      <c r="T61">
+        <v>905</v>
+      </c>
+      <c r="U61">
+        <v>476</v>
+      </c>
+      <c r="V61">
+        <v>1364</v>
+      </c>
+      <c r="W61">
+        <v>515</v>
+      </c>
+      <c r="X61">
+        <v>264</v>
+      </c>
+      <c r="Y61">
+        <v>151</v>
+      </c>
+      <c r="Z61">
+        <v>460</v>
+      </c>
+      <c r="AA61">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>320</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>31</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>19.16</v>
+      </c>
+      <c r="F62">
+        <v>10.26</v>
+      </c>
+      <c r="G62">
+        <v>13</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>12</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>7</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>2752</v>
+      </c>
+      <c r="N62">
+        <v>2414</v>
+      </c>
+      <c r="O62">
+        <v>942</v>
+      </c>
+      <c r="P62">
+        <v>2190</v>
+      </c>
+      <c r="Q62">
+        <v>257</v>
+      </c>
+      <c r="R62">
+        <v>762</v>
+      </c>
+      <c r="S62">
+        <v>611</v>
+      </c>
+      <c r="T62">
+        <v>868</v>
+      </c>
+      <c r="U62">
+        <v>585</v>
+      </c>
+      <c r="V62">
+        <v>1467</v>
+      </c>
+      <c r="W62">
+        <v>589</v>
+      </c>
+      <c r="X62">
+        <v>213</v>
+      </c>
+      <c r="Y62">
+        <v>155</v>
+      </c>
+      <c r="Z62">
+        <v>451</v>
+      </c>
+      <c r="AA62">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>327</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>19</v>
+      </c>
+      <c r="D63">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>-8.68</v>
+      </c>
+      <c r="F63">
+        <v>-7.31</v>
+      </c>
+      <c r="G63">
+        <v>12</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>12</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+      <c r="L63">
+        <v>11</v>
+      </c>
+      <c r="M63">
+        <v>2042</v>
+      </c>
+      <c r="N63">
+        <v>2025</v>
+      </c>
+      <c r="O63">
+        <v>735</v>
+      </c>
+      <c r="P63">
+        <v>1934</v>
+      </c>
+      <c r="Q63">
+        <v>124</v>
+      </c>
+      <c r="R63">
+        <v>500</v>
+      </c>
+      <c r="S63">
+        <v>448</v>
+      </c>
+      <c r="T63">
+        <v>696</v>
+      </c>
+      <c r="U63">
+        <v>450</v>
+      </c>
+      <c r="V63">
+        <v>1276</v>
+      </c>
+      <c r="W63">
+        <v>346</v>
+      </c>
+      <c r="X63">
+        <v>283</v>
+      </c>
+      <c r="Y63">
+        <v>135</v>
+      </c>
+      <c r="Z63">
+        <v>402</v>
+      </c>
+      <c r="AA63">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>328</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>17.84</v>
+      </c>
+      <c r="F64">
+        <v>7.66</v>
+      </c>
+      <c r="G64">
+        <v>13</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>16</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>2214</v>
+      </c>
+      <c r="N64">
+        <v>1878</v>
+      </c>
+      <c r="O64">
+        <v>776</v>
+      </c>
+      <c r="P64">
+        <v>1750</v>
+      </c>
+      <c r="Q64">
+        <v>246</v>
+      </c>
+      <c r="R64">
+        <v>690</v>
+      </c>
+      <c r="S64">
+        <v>416</v>
+      </c>
+      <c r="T64">
+        <v>568</v>
+      </c>
+      <c r="U64">
+        <v>320</v>
+      </c>
+      <c r="V64">
+        <v>1056</v>
+      </c>
+      <c r="W64">
+        <v>412</v>
+      </c>
+      <c r="X64">
+        <v>187</v>
+      </c>
+      <c r="Y64">
+        <v>113</v>
+      </c>
+      <c r="Z64">
+        <v>289</v>
+      </c>
+      <c r="AA64">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>329</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>26</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>4.43</v>
+      </c>
+      <c r="F65">
+        <v>-2.57</v>
+      </c>
+      <c r="G65">
+        <v>15</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>11</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>10</v>
+      </c>
+      <c r="L65">
+        <v>6</v>
+      </c>
+      <c r="M65">
+        <v>2408</v>
+      </c>
+      <c r="N65">
+        <v>2134</v>
+      </c>
+      <c r="O65">
+        <v>825</v>
+      </c>
+      <c r="P65">
+        <v>1873</v>
+      </c>
+      <c r="Q65">
+        <v>203</v>
+      </c>
+      <c r="R65">
+        <v>580</v>
+      </c>
+      <c r="S65">
+        <v>555</v>
+      </c>
+      <c r="T65">
+        <v>830</v>
+      </c>
+      <c r="U65">
+        <v>402</v>
+      </c>
+      <c r="V65">
+        <v>1243</v>
+      </c>
+      <c r="W65">
+        <v>469</v>
+      </c>
+      <c r="X65">
+        <v>242</v>
+      </c>
+      <c r="Y65">
+        <v>74</v>
+      </c>
+      <c r="Z65">
+        <v>416</v>
+      </c>
+      <c r="AA65">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>332</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>26</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>16.23</v>
+      </c>
+      <c r="F66">
+        <v>5.94</v>
+      </c>
+      <c r="G66">
+        <v>14</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>15</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>7</v>
+      </c>
+      <c r="L66">
+        <v>5</v>
+      </c>
+      <c r="M66">
+        <v>2793</v>
+      </c>
+      <c r="N66">
+        <v>2433</v>
+      </c>
+      <c r="O66">
+        <v>961</v>
+      </c>
+      <c r="P66">
+        <v>2082</v>
+      </c>
+      <c r="Q66">
+        <v>250</v>
+      </c>
+      <c r="R66">
+        <v>664</v>
+      </c>
+      <c r="S66">
+        <v>621</v>
+      </c>
+      <c r="T66">
+        <v>873</v>
+      </c>
+      <c r="U66">
+        <v>444</v>
+      </c>
+      <c r="V66">
+        <v>1415</v>
+      </c>
+      <c r="W66">
+        <v>494</v>
+      </c>
+      <c r="X66">
+        <v>235</v>
+      </c>
+      <c r="Y66">
+        <v>132</v>
+      </c>
+      <c r="Z66">
+        <v>452</v>
+      </c>
+      <c r="AA66">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/formatted/basicdata200910.xlsx
+++ b/data/formatted/basicdata200910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614FB4DF-89B3-4C5A-8256-D276CCDAEBDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C46A62-7853-40A1-ADB1-2B05FBDFDD63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{B13395FB-8A76-4F72-BEF1-499CA7C3E9D7}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{B13395FB-8A76-4F72-BEF1-499CA7C3E9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200910.xlsx
+++ b/data/formatted/basicdata200910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C46A62-7853-40A1-ADB1-2B05FBDFDD63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D658EE-9EE3-43C8-BCB5-201DE4555961}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{B13395FB-8A76-4F72-BEF1-499CA7C3E9D7}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{B13395FB-8A76-4F72-BEF1-499CA7C3E9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200910.xlsx
+++ b/data/formatted/basicdata200910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D658EE-9EE3-43C8-BCB5-201DE4555961}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B90675-EC44-4CBD-AB8F-D5D11F9A1621}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{B13395FB-8A76-4F72-BEF1-499CA7C3E9D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B13395FB-8A76-4F72-BEF1-499CA7C3E9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,199 +114,199 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Arkansas-Pine Bluff NCAA</t>
-  </si>
-  <si>
-    <t>Baylor NCAA</t>
-  </si>
-  <si>
-    <t>Brigham Young NCAA</t>
-  </si>
-  <si>
-    <t>Butler NCAA</t>
-  </si>
-  <si>
-    <t>UC-Santa Barbara NCAA</t>
-  </si>
-  <si>
-    <t>University of California NCAA</t>
-  </si>
-  <si>
-    <t>Clemson NCAA</t>
-  </si>
-  <si>
-    <t>Cornell NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>East Tennessee State NCAA</t>
-  </si>
-  <si>
-    <t>Florida State NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>Georgetown NCAA</t>
-  </si>
-  <si>
-    <t>Georgia Tech NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Houston NCAA</t>
-  </si>
-  <si>
-    <t>Kansas State NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Lehigh NCAA</t>
-  </si>
-  <si>
-    <t>Louisville NCAA</t>
-  </si>
-  <si>
-    <t>Marquette NCAA</t>
-  </si>
-  <si>
-    <t>Maryland NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Minnesota NCAA</t>
-  </si>
-  <si>
-    <t>Missouri NCAA</t>
-  </si>
-  <si>
-    <t>Montana NCAA</t>
-  </si>
-  <si>
-    <t>Morgan State NCAA</t>
-  </si>
-  <si>
-    <t>Murray State NCAA</t>
-  </si>
-  <si>
-    <t>Nevada-Las Vegas NCAA</t>
-  </si>
-  <si>
-    <t>New Mexico State NCAA</t>
-  </si>
-  <si>
-    <t>New Mexico NCAA</t>
-  </si>
-  <si>
-    <t>North Texas NCAA</t>
-  </si>
-  <si>
-    <t>Northern Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Notre Dame NCAA</t>
-  </si>
-  <si>
-    <t>Oakland NCAA</t>
-  </si>
-  <si>
-    <t>Ohio State NCAA</t>
-  </si>
-  <si>
-    <t>Ohio NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma State NCAA</t>
-  </si>
-  <si>
-    <t>Old Dominion NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>Purdue NCAA</t>
-  </si>
-  <si>
-    <t>Richmond NCAA</t>
-  </si>
-  <si>
-    <t>Robert Morris NCAA</t>
-  </si>
-  <si>
-    <t>Saint Mary's (CA) NCAA</t>
-  </si>
-  <si>
-    <t>Sam Houston State NCAA</t>
-  </si>
-  <si>
-    <t>San Diego State NCAA</t>
-  </si>
-  <si>
-    <t>Siena NCAA</t>
-  </si>
-  <si>
-    <t>Syracuse NCAA</t>
-  </si>
-  <si>
-    <t>Temple NCAA</t>
-  </si>
-  <si>
-    <t>Tennessee NCAA</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M NCAA</t>
-  </si>
-  <si>
-    <t>Texas-El Paso NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>Utah State NCAA</t>
-  </si>
-  <si>
-    <t>Vanderbilt NCAA</t>
-  </si>
-  <si>
-    <t>Vermont NCAA</t>
-  </si>
-  <si>
-    <t>Villanova NCAA</t>
-  </si>
-  <si>
-    <t>Wake Forest NCAA</t>
-  </si>
-  <si>
-    <t>Washington NCAA</t>
-  </si>
-  <si>
-    <t>West Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Winthrop NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Wofford NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>Arkansas-Pine Bluff</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Brigham Young</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>UC-Santa Barbara</t>
+  </si>
+  <si>
+    <t>University of California</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>East Tennessee State</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Lehigh</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Morgan State</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>Nevada-Las Vegas</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Northern Iowa</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Oakland</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Robert Morris</t>
+  </si>
+  <si>
+    <t>Saint Mary's (CA)</t>
+  </si>
+  <si>
+    <t>Sam Houston State</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Texas-El Paso</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Winthrop</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wofford</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
